--- a/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_NA.xlsx
+++ b/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_NA.xlsx
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="e">
         <v>#NUM!</v>
@@ -622,7 +622,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="C10" t="e">
         <v>#NUM!</v>
@@ -843,7 +843,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>8.3</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
